--- a/data/trans_orig/P20D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A0AD49-88CB-4312-919A-579BEB9FACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E5D8F6-12A6-42B8-82CF-3BEE3C47C204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C16D501E-637D-4BDC-8792-A4178D496057}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C612546-39B5-497E-AF34-CF858AF769A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAF8762-315F-42A0-A626-9C678D4A1E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C034D6C-E825-4A61-AE93-42C8F999C51A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E5D8F6-12A6-42B8-82CF-3BEE3C47C204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A143C1C1-58DF-49DF-A9F5-77172F1FA4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C612546-39B5-497E-AF34-CF858AF769A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22EC80C0-DDF5-47FD-A38C-6899CF752CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>53,9%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>46,1%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>75,27%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>35,71%</t>
@@ -149,7 +149,7 @@
     <t>19,95%</t>
   </si>
   <si>
-    <t>59,19%</t>
+    <t>58,93%</t>
   </si>
   <si>
     <t>56,54%</t>
@@ -158,22 +158,22 @@
     <t>44,1%</t>
   </si>
   <si>
-    <t>68,58%</t>
+    <t>67,64%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>64,29%</t>
   </si>
   <si>
-    <t>40,81%</t>
+    <t>41,07%</t>
   </si>
   <si>
     <t>80,05%</t>
@@ -182,7 +182,7 @@
     <t>43,46%</t>
   </si>
   <si>
-    <t>31,42%</t>
+    <t>32,36%</t>
   </si>
   <si>
     <t>55,9%</t>
@@ -194,7 +194,7 @@
     <t>90,35%</t>
   </si>
   <si>
-    <t>58,16%</t>
+    <t>51,94%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -203,19 +203,19 @@
     <t>12,32%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>9,65%</t>
@@ -224,79 +224,79 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>41,84%</t>
+    <t>48,06%</t>
   </si>
   <si>
     <t>87,68%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C034D6C-E825-4A61-AE93-42C8F999C51A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D03BAC-C2D1-462D-8262-6A13066B5D48}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
